--- a/xlsx/海峡群岛国家公园_intext.xlsx
+++ b/xlsx/海峡群岛国家公园_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="226">
   <si>
     <t>海峡群岛国家公园</t>
   </si>
@@ -41,19 +41,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>加利福尼亞州</t>
+    <t>加利福尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%B7%B4%E5%B7%B4%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖巴巴拉縣 (加利福尼亞州)</t>
+    <t>圣巴巴拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%9B%BE%E6%8B%89%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%A1%94%E8%8A%AD%E8%8A%AD%E6%8B%89_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖塔芭芭拉 (加利福尼亞州)</t>
+    <t>圣塔芭芭拉 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%9D%90%E6%A0%87</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92%E7%AE%A1%E7%90%86%E5%B1%80</t>
   </si>
   <si>
-    <t>美國國家公園管理局</t>
+    <t>美国国家公园管理局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E</t>
@@ -95,13 +95,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF</t>
   </si>
   <si>
-    <t>洛杉磯</t>
+    <t>洛杉矶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E7%81%B0%E7%8B%90</t>
   </si>
   <si>
-    <t>島嶼灰狐</t>
+    <t>岛屿灰狐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%B0%E7%8B%90</t>
@@ -125,13 +125,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>美國國家公園</t>
+    <t>美国国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%8C%85%E8%A3%9D%E8%80%85</t>
   </si>
   <si>
-    <t>島嶼包裝者</t>
+    <t>岛屿包装者</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E6%94%BF%E5%BA%9C</t>
@@ -149,13 +149,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%8B%E9%AD%AF%E6%96%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>聖克魯斯島</t>
+    <t>圣克鲁斯岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%A1%94%E8%8A%AD%E8%8A%AD%E6%8B%89</t>
   </si>
   <si>
-    <t>聖塔芭芭拉</t>
+    <t>圣塔芭芭拉</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Point_Conception</t>
@@ -167,9 +167,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%9F%B6</t>
   </si>
   <si>
-    <t>洛杉矶</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/San_Pedro,_Los_Angeles</t>
   </si>
   <si>
@@ -185,25 +182,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%B1%B3%E6%A0%BC%E7%88%BE%E5%B3%B6_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖米格爾島 (加利福尼亞州)</t>
+    <t>圣米格尔岛 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%BE%85%E8%8E%8E%E5%B3%B6_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖羅莎島 (加利福尼亞州)</t>
+    <t>圣罗莎岛 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%82%A3%E5%8D%A1%E5%B8%95%E5%B3%B6</t>
   </si>
   <si>
-    <t>安那卡帕島</t>
+    <t>安那卡帕岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%B7%B4%E5%B7%B4%E6%8B%89%E5%B3%B6</t>
   </si>
   <si>
-    <t>聖巴巴拉島</t>
+    <t>圣巴巴拉岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%BA%E4%B9%B3%E5%8A%A8%E7%89%A9</t>
@@ -221,19 +218,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E4%BB%96%E7%97%85%E6%AF%92</t>
   </si>
   <si>
-    <t>漢他病毒</t>
+    <t>汉他病毒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E8%B6%B3%E9%BC%A0%E5%B1%AC</t>
   </si>
   <si>
-    <t>白足鼠屬</t>
+    <t>白足鼠属</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%91%E8%87%AD%E9%BC%AC%E5%B1%AC</t>
   </si>
   <si>
-    <t>斑臭鼬屬</t>
+    <t>斑臭鼬属</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sceloporus_occidentalis_becki</t>
@@ -257,7 +254,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E6%B5%B7%E7%8D%85</t>
   </si>
   <si>
-    <t>加州海獅</t>
+    <t>加州海狮</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Island_night_lizard</t>
@@ -287,7 +284,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%8D%89%E5%9C%B0%E9%B7%9A</t>
   </si>
   <si>
-    <t>西草地鷚</t>
+    <t>西草地鹨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A4%90%E9%B9%88%E9%B9%95</t>
@@ -311,7 +308,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E8%9D%95%E6%B4%9E</t>
   </si>
   <si>
-    <t>海蝕洞</t>
+    <t>海蚀洞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E7%8B%AE</t>
@@ -335,31 +332,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%B0%8E%E9%81%8A</t>
   </si>
   <si>
-    <t>維基導遊</t>
+    <t>维基导游</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>Template talk-美國國家公園</t>
+    <t>Template talk-美国国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%A7%91%E5%BA%95%E4%BA%9E%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>阿科底亞國家公園</t>
+    <t>阿科底亚国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>美屬薩摩亞國家公園</t>
+    <t>美属萨摩亚国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%B1%E9%96%80%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>拱門國家公園</t>
+    <t>拱门国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%81%B6%E5%9C%B0%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
@@ -371,13 +368,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%BD%8E%E6%9B%B2%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>大彎曲國家公園</t>
+    <t>大弯曲国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E6%96%AF%E5%9D%8E%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>比斯坎國家公園</t>
+    <t>比斯坎国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%98%E5%B0%BC%E9%80%8A%E9%BB%91%E5%B3%A1%E8%B0%B7%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
@@ -389,7 +386,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E8%90%8A%E6%96%AF%E5%B3%BD%E8%B0%B7%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>布萊斯峽谷國家公園</t>
+    <t>布莱斯峡谷国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B3%A1%E8%B0%B7%E5%9C%B0%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
@@ -419,7 +416,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E5%B1%B1%E5%8F%A3%E6%B9%96%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>火山口湖國家公園</t>
+    <t>火山口湖国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%93%E9%9B%85%E8%8D%B7%E5%8A%A0%E8%B0%B7%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
@@ -431,7 +428,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%BB%E4%BA%A1%E8%B0%B7%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>死亡谷國家公園</t>
+    <t>死亡谷国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E7%BA%B3%E5%88%A9%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%92%8C%E7%A6%81%E7%8C%8E%E5%8C%BA</t>
@@ -443,13 +440,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B9%BE%E9%BE%9C%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>乾龜國家公園</t>
+    <t>干龟国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B2%BC%E6%BE%A4%E5%9C%B0%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>大沼澤地國家公園</t>
+    <t>大沼泽地国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%9E%81%E9%97%A8%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%92%8C%E4%BF%9D%E6%8A%A4%E5%8C%BA</t>
@@ -461,31 +458,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B7%9D%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>冰川國家公園 (美國)</t>
+    <t>冰川国家公园 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B7%9D%E7%81%A3%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>冰川灣國家公園</t>
+    <t>冰川湾国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%B3%BD%E8%B0%B7%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>大峽谷國家公園</t>
+    <t>大峡谷国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%92%82%E9%A0%93%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>大蒂頓國家公園</t>
+    <t>大蒂顿国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%9B%86%E5%9C%B0%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>大盆地國家公園</t>
+    <t>大盆地国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B2%99%E4%B8%98%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
@@ -497,25 +494,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%85%99%E5%B1%B1%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>大煙山國家公園</t>
+    <t>大烟山国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%9C%E9%81%94%E6%B4%9B%E6%99%AE%E5%B1%B1%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>瓜達洛普山國家公園</t>
+    <t>瓜达洛普山国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%8B%92%E5%8D%A1%E6%8B%89%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>海勒卡拉國家公園</t>
+    <t>海勒卡拉国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E7%81%AB%E5%B1%B1%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>夏威夷火山國家公園</t>
+    <t>夏威夷火山国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E6%B3%89%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
@@ -527,25 +524,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9A%87%E5%AE%B6%E5%B3%B6%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>皇家島國家公園</t>
+    <t>皇家岛国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E6%9B%B8%E4%BA%9E%E6%A8%B9%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>約書亞樹國家公園</t>
+    <t>约书亚树国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%89%B9%E9%82%81%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92%E5%92%8C%E8%87%AA%E7%84%B6%E4%BF%9D%E8%AD%B7%E5%8D%80</t>
   </si>
   <si>
-    <t>卡特邁國家公園和自然保護區</t>
+    <t>卡特迈国家公园和自然保护区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%A5%88%E5%B3%BD%E7%81%A3%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>基奈峽灣國家公園</t>
+    <t>基奈峡湾国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E7%8E%8B%E5%B3%A1%E8%B0%B7%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
@@ -557,25 +554,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E4%BC%AF%E5%85%8B%E8%B0%B7%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>科伯克谷國家公園</t>
+    <t>科伯克谷国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%8B%89%E5%85%8B%E6%B9%96%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92%E5%92%8C%E8%87%AA%E7%84%B6%E4%BF%9D%E8%AD%B7%E5%8D%80</t>
   </si>
   <si>
-    <t>克拉克湖國家公園和自然保護區</t>
+    <t>克拉克湖国家公园和自然保护区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%A3%AE%E7%81%AB%E5%B1%B1%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>拉森火山國家公園</t>
+    <t>拉森火山国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%9B%E7%8D%81%E6%B4%9E%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>猛獁洞國家公園</t>
+    <t>猛犸洞国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E8%90%A8%E7%BB%B4%E5%BE%B7%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
@@ -587,109 +584,109 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%B0%BC%E7%88%BE%E5%B1%B1%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>瑞尼爾山國家公園</t>
+    <t>瑞尼尔山国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%96%80%E6%96%AF%E9%96%8B%E5%B1%B1%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>北喀斯開山國家公園</t>
+    <t>北喀斯开山国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>奧林匹克國家公園</t>
+    <t>奥林匹克国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E5%8C%96%E6%9E%97%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>石化林國家公園</t>
+    <t>石化林国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%96%E9%A0%82%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>尖頂國家公園</t>
+    <t>尖顶国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E6%9C%A8%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>紅木國家公園</t>
+    <t>红木国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%A3%AF%E5%B1%B1%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>洛磯山國家公園</t>
+    <t>洛矶山国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A8%E4%BA%BA%E6%9F%B1%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>巨人柱國家公園</t>
+    <t>巨人柱国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A8%E6%9D%89%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>巨杉國家公園</t>
+    <t>巨杉国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%99%E7%B4%8D%E5%BA%A6%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>仙納度國家公園</t>
+    <t>仙纳度国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A5%A5%E5%A4%9A%C2%B7%E7%BE%85%E6%96%AF%E7%A6%8F%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>西奥多·羅斯福國家公園</t>
+    <t>西奥多·罗斯福国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>維爾京群島國家公園</t>
+    <t>维尔京群岛国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%B5%E5%A4%AB%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>樵夫國家公園</t>
+    <t>樵夫国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E6%B4%9E%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>風洞國家公園</t>
+    <t>风洞国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E8%98%AD%E6%A0%BC%E7%88%BE%EF%BC%8D%E8%81%96%E4%BC%8A%E8%90%8A%E4%BA%9E%E6%96%AF%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>弗蘭格爾－聖伊萊亞斯國家公園</t>
+    <t>弗兰格尔－圣伊莱亚斯国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E7%9F%B3%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>黃石國家公園</t>
+    <t>黄石国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%84%AA%E5%8B%9D%E7%BE%8E%E5%9C%B0%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>優勝美地國家公園</t>
+    <t>优胜美地国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8C%AB%E5%AE%89%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>錫安國家公園</t>
+    <t>锡安国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%8D%A1%E8%BF%AA%E4%BA%9A%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
@@ -1762,7 +1759,7 @@
         <v>49</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1788,10 +1785,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1817,10 +1814,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1875,10 +1872,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" t="s">
         <v>55</v>
-      </c>
-      <c r="F29" t="s">
-        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>2</v>
@@ -1904,10 +1901,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" t="s">
         <v>57</v>
-      </c>
-      <c r="F30" t="s">
-        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1933,10 +1930,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" t="s">
         <v>59</v>
-      </c>
-      <c r="F31" t="s">
-        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>4</v>
@@ -1962,10 +1959,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" t="s">
         <v>61</v>
-      </c>
-      <c r="F32" t="s">
-        <v>62</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2049,10 +2046,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" t="s">
         <v>63</v>
-      </c>
-      <c r="F35" t="s">
-        <v>64</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2078,10 +2075,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F36" t="s">
         <v>65</v>
-      </c>
-      <c r="F36" t="s">
-        <v>66</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2107,10 +2104,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>66</v>
+      </c>
+      <c r="F37" t="s">
         <v>67</v>
-      </c>
-      <c r="F37" t="s">
-        <v>68</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2136,10 +2133,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>68</v>
+      </c>
+      <c r="F38" t="s">
         <v>69</v>
-      </c>
-      <c r="F38" t="s">
-        <v>70</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2165,10 +2162,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>70</v>
+      </c>
+      <c r="F39" t="s">
         <v>71</v>
-      </c>
-      <c r="F39" t="s">
-        <v>72</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2194,10 +2191,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>72</v>
+      </c>
+      <c r="F40" t="s">
         <v>73</v>
-      </c>
-      <c r="F40" t="s">
-        <v>74</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2223,10 +2220,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>74</v>
+      </c>
+      <c r="F41" t="s">
         <v>75</v>
-      </c>
-      <c r="F41" t="s">
-        <v>76</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2252,10 +2249,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>76</v>
+      </c>
+      <c r="F42" t="s">
         <v>77</v>
-      </c>
-      <c r="F42" t="s">
-        <v>78</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2281,10 +2278,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>78</v>
+      </c>
+      <c r="F43" t="s">
         <v>79</v>
-      </c>
-      <c r="F43" t="s">
-        <v>80</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2310,10 +2307,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>80</v>
+      </c>
+      <c r="F44" t="s">
         <v>81</v>
-      </c>
-      <c r="F44" t="s">
-        <v>82</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2339,10 +2336,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>82</v>
+      </c>
+      <c r="F45" t="s">
         <v>83</v>
-      </c>
-      <c r="F45" t="s">
-        <v>84</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2368,10 +2365,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>84</v>
+      </c>
+      <c r="F46" t="s">
         <v>85</v>
-      </c>
-      <c r="F46" t="s">
-        <v>86</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2397,10 +2394,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>86</v>
+      </c>
+      <c r="F47" t="s">
         <v>87</v>
-      </c>
-      <c r="F47" t="s">
-        <v>88</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2426,10 +2423,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>88</v>
+      </c>
+      <c r="F48" t="s">
         <v>89</v>
-      </c>
-      <c r="F48" t="s">
-        <v>90</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2455,10 +2452,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>90</v>
+      </c>
+      <c r="F49" t="s">
         <v>91</v>
-      </c>
-      <c r="F49" t="s">
-        <v>92</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2484,10 +2481,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>92</v>
+      </c>
+      <c r="F50" t="s">
         <v>93</v>
-      </c>
-      <c r="F50" t="s">
-        <v>94</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2513,10 +2510,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>94</v>
+      </c>
+      <c r="F51" t="s">
         <v>95</v>
-      </c>
-      <c r="F51" t="s">
-        <v>96</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2542,10 +2539,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>96</v>
+      </c>
+      <c r="F52" t="s">
         <v>97</v>
-      </c>
-      <c r="F52" t="s">
-        <v>98</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2571,10 +2568,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>98</v>
+      </c>
+      <c r="F53" t="s">
         <v>99</v>
-      </c>
-      <c r="F53" t="s">
-        <v>100</v>
       </c>
       <c r="G53" t="n">
         <v>2</v>
@@ -2600,10 +2597,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>100</v>
+      </c>
+      <c r="F54" t="s">
         <v>101</v>
-      </c>
-      <c r="F54" t="s">
-        <v>102</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2629,10 +2626,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>102</v>
+      </c>
+      <c r="F55" t="s">
         <v>103</v>
-      </c>
-      <c r="F55" t="s">
-        <v>104</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2658,10 +2655,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>104</v>
+      </c>
+      <c r="F56" t="s">
         <v>105</v>
-      </c>
-      <c r="F56" t="s">
-        <v>106</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2687,10 +2684,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>106</v>
+      </c>
+      <c r="F57" t="s">
         <v>107</v>
-      </c>
-      <c r="F57" t="s">
-        <v>108</v>
       </c>
       <c r="G57" t="n">
         <v>3</v>
@@ -2716,10 +2713,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>108</v>
+      </c>
+      <c r="F58" t="s">
         <v>109</v>
-      </c>
-      <c r="F58" t="s">
-        <v>110</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2745,10 +2742,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>110</v>
+      </c>
+      <c r="F59" t="s">
         <v>111</v>
-      </c>
-      <c r="F59" t="s">
-        <v>112</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2774,10 +2771,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>112</v>
+      </c>
+      <c r="F60" t="s">
         <v>113</v>
-      </c>
-      <c r="F60" t="s">
-        <v>114</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2803,10 +2800,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>114</v>
+      </c>
+      <c r="F61" t="s">
         <v>115</v>
-      </c>
-      <c r="F61" t="s">
-        <v>116</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2832,10 +2829,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>116</v>
+      </c>
+      <c r="F62" t="s">
         <v>117</v>
-      </c>
-      <c r="F62" t="s">
-        <v>118</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2861,10 +2858,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>118</v>
+      </c>
+      <c r="F63" t="s">
         <v>119</v>
-      </c>
-      <c r="F63" t="s">
-        <v>120</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2890,10 +2887,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>120</v>
+      </c>
+      <c r="F64" t="s">
         <v>121</v>
-      </c>
-      <c r="F64" t="s">
-        <v>122</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2919,10 +2916,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>122</v>
+      </c>
+      <c r="F65" t="s">
         <v>123</v>
-      </c>
-      <c r="F65" t="s">
-        <v>124</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2948,10 +2945,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>124</v>
+      </c>
+      <c r="F66" t="s">
         <v>125</v>
-      </c>
-      <c r="F66" t="s">
-        <v>126</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2977,10 +2974,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>126</v>
+      </c>
+      <c r="F67" t="s">
         <v>127</v>
-      </c>
-      <c r="F67" t="s">
-        <v>128</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3006,10 +3003,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>128</v>
+      </c>
+      <c r="F68" t="s">
         <v>129</v>
-      </c>
-      <c r="F68" t="s">
-        <v>130</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3035,10 +3032,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>130</v>
+      </c>
+      <c r="F69" t="s">
         <v>131</v>
-      </c>
-      <c r="F69" t="s">
-        <v>132</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3064,10 +3061,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>132</v>
+      </c>
+      <c r="F70" t="s">
         <v>133</v>
-      </c>
-      <c r="F70" t="s">
-        <v>134</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3093,10 +3090,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>134</v>
+      </c>
+      <c r="F71" t="s">
         <v>135</v>
-      </c>
-      <c r="F71" t="s">
-        <v>136</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3122,10 +3119,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>136</v>
+      </c>
+      <c r="F72" t="s">
         <v>137</v>
-      </c>
-      <c r="F72" t="s">
-        <v>138</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3151,10 +3148,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>138</v>
+      </c>
+      <c r="F73" t="s">
         <v>139</v>
-      </c>
-      <c r="F73" t="s">
-        <v>140</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3180,10 +3177,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>140</v>
+      </c>
+      <c r="F74" t="s">
         <v>141</v>
-      </c>
-      <c r="F74" t="s">
-        <v>142</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3209,10 +3206,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>142</v>
+      </c>
+      <c r="F75" t="s">
         <v>143</v>
-      </c>
-      <c r="F75" t="s">
-        <v>144</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3238,10 +3235,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>144</v>
+      </c>
+      <c r="F76" t="s">
         <v>145</v>
-      </c>
-      <c r="F76" t="s">
-        <v>146</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3267,10 +3264,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>146</v>
+      </c>
+      <c r="F77" t="s">
         <v>147</v>
-      </c>
-      <c r="F77" t="s">
-        <v>148</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -3296,10 +3293,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>148</v>
+      </c>
+      <c r="F78" t="s">
         <v>149</v>
-      </c>
-      <c r="F78" t="s">
-        <v>150</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3325,10 +3322,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>150</v>
+      </c>
+      <c r="F79" t="s">
         <v>151</v>
-      </c>
-      <c r="F79" t="s">
-        <v>152</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3354,10 +3351,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>152</v>
+      </c>
+      <c r="F80" t="s">
         <v>153</v>
-      </c>
-      <c r="F80" t="s">
-        <v>154</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3383,10 +3380,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>154</v>
+      </c>
+      <c r="F81" t="s">
         <v>155</v>
-      </c>
-      <c r="F81" t="s">
-        <v>156</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3412,10 +3409,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>156</v>
+      </c>
+      <c r="F82" t="s">
         <v>157</v>
-      </c>
-      <c r="F82" t="s">
-        <v>158</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3441,10 +3438,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>158</v>
+      </c>
+      <c r="F83" t="s">
         <v>159</v>
-      </c>
-      <c r="F83" t="s">
-        <v>160</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3470,10 +3467,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>160</v>
+      </c>
+      <c r="F84" t="s">
         <v>161</v>
-      </c>
-      <c r="F84" t="s">
-        <v>162</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3499,10 +3496,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>162</v>
+      </c>
+      <c r="F85" t="s">
         <v>163</v>
-      </c>
-      <c r="F85" t="s">
-        <v>164</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3528,10 +3525,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>164</v>
+      </c>
+      <c r="F86" t="s">
         <v>165</v>
-      </c>
-      <c r="F86" t="s">
-        <v>166</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3557,10 +3554,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>166</v>
+      </c>
+      <c r="F87" t="s">
         <v>167</v>
-      </c>
-      <c r="F87" t="s">
-        <v>168</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3586,10 +3583,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>168</v>
+      </c>
+      <c r="F88" t="s">
         <v>169</v>
-      </c>
-      <c r="F88" t="s">
-        <v>170</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3615,10 +3612,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>170</v>
+      </c>
+      <c r="F89" t="s">
         <v>171</v>
-      </c>
-      <c r="F89" t="s">
-        <v>172</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3644,10 +3641,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>172</v>
+      </c>
+      <c r="F90" t="s">
         <v>173</v>
-      </c>
-      <c r="F90" t="s">
-        <v>174</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3673,10 +3670,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>174</v>
+      </c>
+      <c r="F91" t="s">
         <v>175</v>
-      </c>
-      <c r="F91" t="s">
-        <v>176</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3702,10 +3699,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>176</v>
+      </c>
+      <c r="F92" t="s">
         <v>177</v>
-      </c>
-      <c r="F92" t="s">
-        <v>178</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3731,10 +3728,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>178</v>
+      </c>
+      <c r="F93" t="s">
         <v>179</v>
-      </c>
-      <c r="F93" t="s">
-        <v>180</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3760,10 +3757,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>180</v>
+      </c>
+      <c r="F94" t="s">
         <v>181</v>
-      </c>
-      <c r="F94" t="s">
-        <v>182</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3789,10 +3786,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>182</v>
+      </c>
+      <c r="F95" t="s">
         <v>183</v>
-      </c>
-      <c r="F95" t="s">
-        <v>184</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3818,10 +3815,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>184</v>
+      </c>
+      <c r="F96" t="s">
         <v>185</v>
-      </c>
-      <c r="F96" t="s">
-        <v>186</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3847,10 +3844,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>186</v>
+      </c>
+      <c r="F97" t="s">
         <v>187</v>
-      </c>
-      <c r="F97" t="s">
-        <v>188</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3876,10 +3873,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>188</v>
+      </c>
+      <c r="F98" t="s">
         <v>189</v>
-      </c>
-      <c r="F98" t="s">
-        <v>190</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -3905,10 +3902,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>190</v>
+      </c>
+      <c r="F99" t="s">
         <v>191</v>
-      </c>
-      <c r="F99" t="s">
-        <v>192</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -3934,10 +3931,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>192</v>
+      </c>
+      <c r="F100" t="s">
         <v>193</v>
-      </c>
-      <c r="F100" t="s">
-        <v>194</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -3963,10 +3960,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>194</v>
+      </c>
+      <c r="F101" t="s">
         <v>195</v>
-      </c>
-      <c r="F101" t="s">
-        <v>196</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -3992,10 +3989,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>196</v>
+      </c>
+      <c r="F102" t="s">
         <v>197</v>
-      </c>
-      <c r="F102" t="s">
-        <v>198</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4021,10 +4018,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>198</v>
+      </c>
+      <c r="F103" t="s">
         <v>199</v>
-      </c>
-      <c r="F103" t="s">
-        <v>200</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4050,10 +4047,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>200</v>
+      </c>
+      <c r="F104" t="s">
         <v>201</v>
-      </c>
-      <c r="F104" t="s">
-        <v>202</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4079,10 +4076,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>202</v>
+      </c>
+      <c r="F105" t="s">
         <v>203</v>
-      </c>
-      <c r="F105" t="s">
-        <v>204</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4108,10 +4105,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>204</v>
+      </c>
+      <c r="F106" t="s">
         <v>205</v>
-      </c>
-      <c r="F106" t="s">
-        <v>206</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4137,10 +4134,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>206</v>
+      </c>
+      <c r="F107" t="s">
         <v>207</v>
-      </c>
-      <c r="F107" t="s">
-        <v>208</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4166,10 +4163,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>208</v>
+      </c>
+      <c r="F108" t="s">
         <v>209</v>
-      </c>
-      <c r="F108" t="s">
-        <v>210</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4195,10 +4192,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>210</v>
+      </c>
+      <c r="F109" t="s">
         <v>211</v>
-      </c>
-      <c r="F109" t="s">
-        <v>212</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4224,10 +4221,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>212</v>
+      </c>
+      <c r="F110" t="s">
         <v>213</v>
-      </c>
-      <c r="F110" t="s">
-        <v>214</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4253,10 +4250,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>214</v>
+      </c>
+      <c r="F111" t="s">
         <v>215</v>
-      </c>
-      <c r="F111" t="s">
-        <v>216</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4282,10 +4279,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>216</v>
+      </c>
+      <c r="F112" t="s">
         <v>217</v>
-      </c>
-      <c r="F112" t="s">
-        <v>218</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4311,10 +4308,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>218</v>
+      </c>
+      <c r="F113" t="s">
         <v>219</v>
-      </c>
-      <c r="F113" t="s">
-        <v>220</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4340,10 +4337,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>220</v>
+      </c>
+      <c r="F114" t="s">
         <v>221</v>
-      </c>
-      <c r="F114" t="s">
-        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4369,10 +4366,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>222</v>
+      </c>
+      <c r="F115" t="s">
         <v>223</v>
-      </c>
-      <c r="F115" t="s">
-        <v>224</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4398,10 +4395,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>224</v>
+      </c>
+      <c r="F116" t="s">
         <v>225</v>
-      </c>
-      <c r="F116" t="s">
-        <v>226</v>
       </c>
       <c r="G116" t="n">
         <v>56</v>
